--- a/리스트.xlsx
+++ b/리스트.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,9 +435,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>1F-A-1-1</v>
-      </c>
       <c r="B2" t="str">
         <v>1F</v>
       </c>
@@ -464,11 +461,40 @@
       </c>
       <c r="J2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>1F</v>
+      </c>
+      <c r="C3" t="str">
+        <v>A</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <v>BCD</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/리스트.xlsx
+++ b/리스트.xlsx
@@ -435,6 +435,9 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>1FA11</v>
+      </c>
       <c r="B2" t="str">
         <v>1F</v>
       </c>
@@ -464,6 +467,9 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>1FA12</v>
+      </c>
       <c r="B3" t="str">
         <v>1F</v>
       </c>

--- a/리스트.xlsx
+++ b/리스트.xlsx
@@ -469,10 +469,10 @@
         <v>7500</v>
       </c>
       <c r="J2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2">
-        <v>517500</v>
+        <v>510000</v>
       </c>
       <c r="L2">
         <v>7500</v>

--- a/리스트.xlsx
+++ b/리스트.xlsx
@@ -469,10 +469,10 @@
         <v>7500</v>
       </c>
       <c r="J2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2">
-        <v>510000</v>
+        <v>517500</v>
       </c>
       <c r="L2">
         <v>7500</v>
